--- a/docs/Erick Malan_Pila_del_Producto_Biblia_Interactiva_AR.xlsx
+++ b/docs/Erick Malan_Pila_del_Producto_Biblia_Interactiva_AR.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/erick_malan_espoch_edu_ec/Documents/Universidad/UNI/OCTAVO SEMESTRE/Aplicaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{E5FB4AE6-FEF8-4B5E-86CD-3BB9A58B80BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C721F9D0-6280-41AA-8188-525F18AC6358}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{E5FB4AE6-FEF8-4B5E-86CD-3BB9A58B80BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{898ADC9F-5F8A-4F8D-9F2B-1FE67AFB576C}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Prioridad (1-10)</t>
   </si>
   <si>
-    <t>Estimación (días)</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -79,55 +76,76 @@
     <t>Visualización AR de historia bíblica</t>
   </si>
   <si>
-    <t>Narración interactiva</t>
-  </si>
-  <si>
     <t>Menú de selección de historia</t>
   </si>
   <si>
-    <t>Escaneo de marcador</t>
-  </si>
-  <si>
-    <t>Configurar Unity y entorno AR</t>
-  </si>
-  <si>
-    <t>Estructura de carpetas y organización</t>
-  </si>
-  <si>
-    <t>Desarrollo del menú de historias</t>
-  </si>
-  <si>
-    <t>Escaneo AR con marcador</t>
-  </si>
-  <si>
-    <t>Narración automática y táctil</t>
-  </si>
-  <si>
-    <t>Navegación entre escenas</t>
-  </si>
-  <si>
-    <t>Pruebas de rendimiento</t>
-  </si>
-  <si>
-    <t>Generación del APK final</t>
-  </si>
-  <si>
-    <t>Documentación técnica y guía de usuario</t>
-  </si>
-  <si>
     <t>Pendiente</t>
   </si>
   <si>
-    <t>Nombre:</t>
-  </si>
-  <si>
-    <t>Sistema:</t>
-  </si>
-  <si>
-    <t>Biblia Interactiva AR</t>
-  </si>
-  <si>
-    <t>Erick Malán - 7264</t>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Estimación (horas)</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Historia Usuario</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Narración interactiva en escenas bíblicas</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Escaneo de marcador físico para activar escena</t>
+  </si>
+  <si>
+    <t>Historia Técnica</t>
+  </si>
+  <si>
+    <t>Configurar entorno de desarrollo en Unity</t>
+  </si>
+  <si>
+    <t>Definir estructura base del proyecto y carpetas</t>
+  </si>
+  <si>
+    <t>Desarrollo del menú de selección de historias bíblicas</t>
+  </si>
+  <si>
+    <t>Integración de escaneo de marcador con AR Foundation</t>
+  </si>
+  <si>
+    <t>Sistema de narración automática y por eventos táctiles</t>
+  </si>
+  <si>
+    <t>Lógica de navegación entre escenas</t>
+  </si>
+  <si>
+    <t>Optimización de carga y rendimiento en dispositivos móviles</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Exportación del APK final para instalación</t>
+  </si>
+  <si>
+    <t>Documentación interna y guía de uso del sistema</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Pila del Producto – Biblia Interactiva AR</t>
   </si>
 </sst>
 </file>
@@ -160,7 +178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,18 +210,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,275 +527,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4294043-D187-4C50-AF67-82BFD49BCA3D}">
+  <dimension ref="A2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E7" s="3">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="E13" s="3">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="F17" s="3">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H17">
+    <sortCondition ref="H4:H17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Erick Malan_Pila_del_Producto_Biblia_Interactiva_AR.xlsx
+++ b/docs/Erick Malan_Pila_del_Producto_Biblia_Interactiva_AR.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveespochedu-my.sharepoint.com/personal/erick_malan_espoch_edu_ec/Documents/Universidad/UNI/OCTAVO SEMESTRE/Aplicaciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{E5FB4AE6-FEF8-4B5E-86CD-3BB9A58B80BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{898ADC9F-5F8A-4F8D-9F2B-1FE67AFB576C}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{E5FB4AE6-FEF8-4B5E-86CD-3BB9A58B80BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C721F9D0-6280-41AA-8188-525F18AC6358}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Prioridad (1-10)</t>
   </si>
   <si>
+    <t>Estimación (días)</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -76,76 +79,55 @@
     <t>Visualización AR de historia bíblica</t>
   </si>
   <si>
+    <t>Narración interactiva</t>
+  </si>
+  <si>
     <t>Menú de selección de historia</t>
   </si>
   <si>
+    <t>Escaneo de marcador</t>
+  </si>
+  <si>
+    <t>Configurar Unity y entorno AR</t>
+  </si>
+  <si>
+    <t>Estructura de carpetas y organización</t>
+  </si>
+  <si>
+    <t>Desarrollo del menú de historias</t>
+  </si>
+  <si>
+    <t>Escaneo AR con marcador</t>
+  </si>
+  <si>
+    <t>Narración automática y táctil</t>
+  </si>
+  <si>
+    <t>Navegación entre escenas</t>
+  </si>
+  <si>
+    <t>Pruebas de rendimiento</t>
+  </si>
+  <si>
+    <t>Generación del APK final</t>
+  </si>
+  <si>
+    <t>Documentación técnica y guía de usuario</t>
+  </si>
+  <si>
     <t>Pendiente</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Estimación (horas)</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Historia Usuario</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Narración interactiva en escenas bíblicas</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Escaneo de marcador físico para activar escena</t>
-  </si>
-  <si>
-    <t>Historia Técnica</t>
-  </si>
-  <si>
-    <t>Configurar entorno de desarrollo en Unity</t>
-  </si>
-  <si>
-    <t>Definir estructura base del proyecto y carpetas</t>
-  </si>
-  <si>
-    <t>Desarrollo del menú de selección de historias bíblicas</t>
-  </si>
-  <si>
-    <t>Integración de escaneo de marcador con AR Foundation</t>
-  </si>
-  <si>
-    <t>Sistema de narración automática y por eventos táctiles</t>
-  </si>
-  <si>
-    <t>Lógica de navegación entre escenas</t>
-  </si>
-  <si>
-    <t>Optimización de carga y rendimiento en dispositivos móviles</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Exportación del APK final para instalación</t>
-  </si>
-  <si>
-    <t>Documentación interna y guía de uso del sistema</t>
-  </si>
-  <si>
-    <t>Sprint 5</t>
-  </si>
-  <si>
-    <t>Pila del Producto – Biblia Interactiva AR</t>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>Sistema:</t>
+  </si>
+  <si>
+    <t>Biblia Interactiva AR</t>
+  </si>
+  <si>
+    <t>Erick Malán - 7264</t>
   </si>
 </sst>
 </file>
@@ -178,7 +160,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,19 +192,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,352 +508,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4294043-D187-4C50-AF67-82BFD49BCA3D}">
-  <dimension ref="A2:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3">
-        <v>6</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="3">
-        <v>9</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>40</v>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:H17">
-    <sortCondition ref="H4:H17"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>